--- a/biology/Médecine/Os_alvéolaire/Os_alvéolaire.xlsx
+++ b/biology/Médecine/Os_alvéolaire/Os_alvéolaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Os_alv%C3%A9olaire</t>
+          <t>Os_alvéolaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'os alvéolaire est l'os qui entoure et maintient la dent sur l'arcade maxillaire (voir : Parodonte). Toute la vie, il suit un remodelage osseux selon les forces ou contraintes qu'il subit. Au cours de l'existence, ses dimensions peuvent donc évoluer vers une augmentation (éruption dentaire, égression dentaire, torus maxillaire) ou une diminution (déchaussement des dents).
